--- a/Super-1_Components.xlsx
+++ b/Super-1_Components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81230425-C43D-4302-B993-4914423F4838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{520C2E8A-B34B-4FD1-A046-C75A85AA528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8F225BC7-0867-4185-8D4B-8647795E9850}"/>
+    <workbookView xWindow="5460" yWindow="1185" windowWidth="28800" windowHeight="15345" xr2:uid="{8F225BC7-0867-4185-8D4B-8647795E9850}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t xml:space="preserve">594-MCT06030C7509FP5 </t>
   </si>
   <si>
-    <t xml:space="preserve">Thin Film Resistors - SMD .1W 75ohm 1% 0603 50ppm Auto </t>
-  </si>
-  <si>
     <t>R/G/B output resistors</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>NOT USED, were in an unreleased prototype or switched to tighter tolerance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thin Film Resistors - SMD CPF 0603 75R 0.1% 25PPM </t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA6F61D-F995-4594-9EE6-C54F892A25E1}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -622,15 +622,15 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -639,10 +639,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -659,10 +659,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -679,10 +679,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -696,53 +696,53 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -750,19 +750,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
@@ -770,19 +770,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2">
         <v>3</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
